--- a/SDET2/testData/testScriptData.xlsx
+++ b/SDET2/testData/testScriptData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E9"/>
+  <oleSize ref="F1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>testID</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>createAnd DeleteOrganization</t>
+  </si>
+  <si>
+    <t>SelectLabel</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>AlertMsg</t>
+  </si>
+  <si>
+    <t>Deleting this organization(s) will remove its related Opportunities &amp; Quotes. Are you sure you want to delete the selected 1 records?</t>
+  </si>
+  <si>
+    <t>ExpSearchRes</t>
+  </si>
+  <si>
+    <t>No Organization Found !</t>
+  </si>
+  <si>
+    <t>ExpOrgSearchRes</t>
+  </si>
+  <si>
+    <t>No Contact Found !</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the selected 1 records?</t>
+  </si>
+  <si>
+    <t>ExpContactSearchRes</t>
   </si>
 </sst>
 </file>
@@ -398,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,14 +438,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="F1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -458,7 +490,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,12 +500,18 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -483,31 +521,39 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +574,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -549,7 +595,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,9 +614,20 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,7 +646,18 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
